--- a/data/input_behavior/BehaviorScenario_Info_Location.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Location.xlsx
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,6 +647,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
@@ -655,15 +664,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,6 +686,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -694,12 +702,4 @@
     <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>